--- a/Documents/Backlogs_Iteration2.xlsx
+++ b/Documents/Backlogs_Iteration2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="20490" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="5" r:id="rId1"/>
@@ -853,6 +853,9 @@
                 <c:pt idx="2">
                   <c:v>30</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -866,11 +869,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160647808"/>
-        <c:axId val="160658560"/>
+        <c:axId val="148789888"/>
+        <c:axId val="148800640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160647808"/>
+        <c:axId val="148789888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,12 +919,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160658560"/>
+        <c:crossAx val="148800640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160658560"/>
+        <c:axId val="148800640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +954,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160647808"/>
+        <c:crossAx val="148789888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1580,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,6 +1741,10 @@
         <f t="shared" ca="1" si="0"/>
         <v>20</v>
       </c>
+      <c r="P5">
+        <f ca="1">P4-SUMIF($K$8:$K$72,N5,$H$8:$H$72)</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -2310,15 +2317,15 @@
       </c>
       <c r="G18" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Not Completed</v>
+        <v>Completed</v>
       </c>
       <c r="H18" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" s="18" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2399,15 +2406,15 @@
       </c>
       <c r="G20" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Not Completed</v>
+        <v>Completed</v>
       </c>
       <c r="H20" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" s="18" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2438,15 +2445,15 @@
       </c>
       <c r="G21" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Not Completed</v>
+        <v>Completed</v>
       </c>
       <c r="H21" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" s="18" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3483,7 +3490,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3778,7 +3785,7 @@
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3863,7 +3870,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3897,7 +3904,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3914,7 +3921,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
